--- a/datasets/june.xlsx
+++ b/datasets/june.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documents\GitHub\VisualAnalytics\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EC48A8-BD93-45EA-831D-DEDC8590677F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{400EFB98-5ACF-4897-B98F-CE97BFD20954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6524" uniqueCount="2376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6776" uniqueCount="2377">
   <si>
     <t>Category</t>
   </si>
@@ -7148,6 +7148,9 @@
   </si>
   <si>
     <t>month</t>
+  </si>
+  <si>
+    <t>Mixed</t>
   </si>
 </sst>
 </file>
@@ -7990,8 +7993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I838"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A805" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8036,6 +8039,9 @@
       <c r="B2" t="s">
         <v>198</v>
       </c>
+      <c r="C2" t="s">
+        <v>2376</v>
+      </c>
       <c r="D2" t="s">
         <v>199</v>
       </c>
@@ -8120,6 +8126,9 @@
       <c r="B5" t="s">
         <v>208</v>
       </c>
+      <c r="C5" t="s">
+        <v>2376</v>
+      </c>
       <c r="D5" t="s">
         <v>44</v>
       </c>
@@ -8262,6 +8271,9 @@
       <c r="B10" t="s">
         <v>226</v>
       </c>
+      <c r="C10" t="s">
+        <v>2376</v>
+      </c>
       <c r="D10" t="s">
         <v>81</v>
       </c>
@@ -8346,6 +8358,9 @@
       <c r="B13" t="s">
         <v>234</v>
       </c>
+      <c r="C13" t="s">
+        <v>2376</v>
+      </c>
       <c r="D13" t="s">
         <v>150</v>
       </c>
@@ -8430,6 +8445,9 @@
       <c r="B16" t="s">
         <v>243</v>
       </c>
+      <c r="C16" t="s">
+        <v>2376</v>
+      </c>
       <c r="D16" t="s">
         <v>244</v>
       </c>
@@ -8456,6 +8474,9 @@
       <c r="B17" t="s">
         <v>248</v>
       </c>
+      <c r="C17" t="s">
+        <v>2376</v>
+      </c>
       <c r="D17" t="s">
         <v>181</v>
       </c>
@@ -8627,6 +8648,9 @@
       <c r="B23" t="s">
         <v>275</v>
       </c>
+      <c r="C23" t="s">
+        <v>2376</v>
+      </c>
       <c r="D23" t="s">
         <v>276</v>
       </c>
@@ -8711,6 +8735,9 @@
       <c r="B26" t="s">
         <v>286</v>
       </c>
+      <c r="C26" t="s">
+        <v>2376</v>
+      </c>
       <c r="D26" t="s">
         <v>287</v>
       </c>
@@ -8969,6 +8996,9 @@
       <c r="B35" t="s">
         <v>318</v>
       </c>
+      <c r="C35" t="s">
+        <v>2376</v>
+      </c>
       <c r="D35" t="s">
         <v>319</v>
       </c>
@@ -9082,6 +9112,9 @@
       <c r="B39" t="s">
         <v>333</v>
       </c>
+      <c r="C39" t="s">
+        <v>2376</v>
+      </c>
       <c r="D39" t="s">
         <v>51</v>
       </c>
@@ -9282,6 +9315,9 @@
       <c r="B46" t="s">
         <v>353</v>
       </c>
+      <c r="C46" t="s">
+        <v>2376</v>
+      </c>
       <c r="D46" t="s">
         <v>138</v>
       </c>
@@ -9424,6 +9460,9 @@
       <c r="B51" t="s">
         <v>368</v>
       </c>
+      <c r="C51" t="s">
+        <v>2376</v>
+      </c>
       <c r="D51" t="s">
         <v>126</v>
       </c>
@@ -9508,6 +9547,9 @@
       <c r="B54" t="s">
         <v>377</v>
       </c>
+      <c r="C54" t="s">
+        <v>2376</v>
+      </c>
       <c r="D54" t="s">
         <v>95</v>
       </c>
@@ -9534,6 +9576,9 @@
       <c r="B55" t="s">
         <v>380</v>
       </c>
+      <c r="C55" t="s">
+        <v>2376</v>
+      </c>
       <c r="D55" t="s">
         <v>381</v>
       </c>
@@ -9589,6 +9634,9 @@
       <c r="B57" t="s">
         <v>389</v>
       </c>
+      <c r="C57" t="s">
+        <v>2376</v>
+      </c>
       <c r="D57" t="s">
         <v>46</v>
       </c>
@@ -9760,6 +9808,9 @@
       <c r="B63" t="s">
         <v>405</v>
       </c>
+      <c r="C63" t="s">
+        <v>2376</v>
+      </c>
       <c r="D63" t="s">
         <v>55</v>
       </c>
@@ -9815,6 +9866,9 @@
       <c r="B65" t="s">
         <v>410</v>
       </c>
+      <c r="C65" t="s">
+        <v>2376</v>
+      </c>
       <c r="D65" t="s">
         <v>66</v>
       </c>
@@ -10131,6 +10185,9 @@
       <c r="B76" t="s">
         <v>445</v>
       </c>
+      <c r="C76" t="s">
+        <v>2376</v>
+      </c>
       <c r="D76" t="s">
         <v>156</v>
       </c>
@@ -10186,6 +10243,9 @@
       <c r="B78" t="s">
         <v>452</v>
       </c>
+      <c r="C78" t="s">
+        <v>2376</v>
+      </c>
       <c r="D78" t="s">
         <v>40</v>
       </c>
@@ -10212,6 +10272,9 @@
       <c r="B79" t="s">
         <v>455</v>
       </c>
+      <c r="C79" t="s">
+        <v>2376</v>
+      </c>
       <c r="D79" t="s">
         <v>40</v>
       </c>
@@ -10267,6 +10330,9 @@
       <c r="B81" t="s">
         <v>460</v>
       </c>
+      <c r="C81" t="s">
+        <v>2376</v>
+      </c>
       <c r="D81" t="s">
         <v>461</v>
       </c>
@@ -10409,6 +10475,9 @@
       <c r="B86" t="s">
         <v>475</v>
       </c>
+      <c r="C86" t="s">
+        <v>2376</v>
+      </c>
       <c r="D86" t="s">
         <v>77</v>
       </c>
@@ -10522,6 +10591,9 @@
       <c r="B90" t="s">
         <v>489</v>
       </c>
+      <c r="C90" t="s">
+        <v>2376</v>
+      </c>
       <c r="D90" t="s">
         <v>91</v>
       </c>
@@ -10577,6 +10649,9 @@
       <c r="B92" t="s">
         <v>496</v>
       </c>
+      <c r="C92" t="s">
+        <v>2376</v>
+      </c>
       <c r="D92" t="s">
         <v>171</v>
       </c>
@@ -10690,6 +10765,9 @@
       <c r="B96" t="s">
         <v>496</v>
       </c>
+      <c r="C96" t="s">
+        <v>2376</v>
+      </c>
       <c r="D96" t="s">
         <v>171</v>
       </c>
@@ -10803,6 +10881,9 @@
       <c r="B100" t="s">
         <v>514</v>
       </c>
+      <c r="C100" t="s">
+        <v>2376</v>
+      </c>
       <c r="D100" t="s">
         <v>319</v>
       </c>
@@ -10887,6 +10968,9 @@
       <c r="B103" t="s">
         <v>524</v>
       </c>
+      <c r="C103" t="s">
+        <v>2376</v>
+      </c>
       <c r="D103" t="s">
         <v>46</v>
       </c>
@@ -10913,6 +10997,9 @@
       <c r="B104" t="s">
         <v>526</v>
       </c>
+      <c r="C104" t="s">
+        <v>2376</v>
+      </c>
       <c r="D104" t="s">
         <v>66</v>
       </c>
@@ -11113,6 +11200,9 @@
       <c r="B111" t="s">
         <v>542</v>
       </c>
+      <c r="C111" t="s">
+        <v>2376</v>
+      </c>
       <c r="D111" t="s">
         <v>518</v>
       </c>
@@ -11139,6 +11229,9 @@
       <c r="B112" t="s">
         <v>544</v>
       </c>
+      <c r="C112" t="s">
+        <v>2376</v>
+      </c>
       <c r="D112" t="s">
         <v>71</v>
       </c>
@@ -11165,6 +11258,9 @@
       <c r="B113" t="s">
         <v>547</v>
       </c>
+      <c r="C113" t="s">
+        <v>2376</v>
+      </c>
       <c r="D113" t="s">
         <v>138</v>
       </c>
@@ -11191,6 +11287,9 @@
       <c r="B114" t="s">
         <v>550</v>
       </c>
+      <c r="C114" t="s">
+        <v>2376</v>
+      </c>
       <c r="D114" t="s">
         <v>138</v>
       </c>
@@ -11217,6 +11316,9 @@
       <c r="B115" t="s">
         <v>554</v>
       </c>
+      <c r="C115" t="s">
+        <v>2376</v>
+      </c>
       <c r="D115" t="s">
         <v>53</v>
       </c>
@@ -11243,6 +11345,9 @@
       <c r="B116" t="s">
         <v>555</v>
       </c>
+      <c r="C116" t="s">
+        <v>2376</v>
+      </c>
       <c r="D116" t="s">
         <v>28</v>
       </c>
@@ -11269,6 +11374,9 @@
       <c r="B117" t="s">
         <v>557</v>
       </c>
+      <c r="C117" t="s">
+        <v>2376</v>
+      </c>
       <c r="D117" t="s">
         <v>40</v>
       </c>
@@ -11324,6 +11432,9 @@
       <c r="B119" t="s">
         <v>564</v>
       </c>
+      <c r="C119" t="s">
+        <v>2376</v>
+      </c>
       <c r="D119" t="s">
         <v>212</v>
       </c>
@@ -11408,6 +11519,9 @@
       <c r="B122" t="s">
         <v>578</v>
       </c>
+      <c r="C122" t="s">
+        <v>2376</v>
+      </c>
       <c r="D122" t="s">
         <v>579</v>
       </c>
@@ -11463,6 +11577,9 @@
       <c r="B124" t="s">
         <v>584</v>
       </c>
+      <c r="C124" t="s">
+        <v>2376</v>
+      </c>
       <c r="D124" t="s">
         <v>585</v>
       </c>
@@ -11489,6 +11606,9 @@
       <c r="B125" t="s">
         <v>588</v>
       </c>
+      <c r="C125" t="s">
+        <v>2376</v>
+      </c>
       <c r="D125" t="s">
         <v>589</v>
       </c>
@@ -11573,6 +11693,9 @@
       <c r="B128" t="s">
         <v>601</v>
       </c>
+      <c r="C128" t="s">
+        <v>2376</v>
+      </c>
       <c r="D128" t="s">
         <v>602</v>
       </c>
@@ -11628,6 +11751,9 @@
       <c r="B130" t="s">
         <v>609</v>
       </c>
+      <c r="C130" t="s">
+        <v>2376</v>
+      </c>
       <c r="D130" t="s">
         <v>610</v>
       </c>
@@ -11857,6 +11983,9 @@
       <c r="B138" t="s">
         <v>640</v>
       </c>
+      <c r="C138" t="s">
+        <v>2376</v>
+      </c>
       <c r="D138" t="s">
         <v>641</v>
       </c>
@@ -11912,6 +12041,9 @@
       <c r="B140" t="s">
         <v>646</v>
       </c>
+      <c r="C140" t="s">
+        <v>2376</v>
+      </c>
       <c r="D140" t="s">
         <v>163</v>
       </c>
@@ -11967,6 +12099,9 @@
       <c r="B142" t="s">
         <v>651</v>
       </c>
+      <c r="C142" t="s">
+        <v>2376</v>
+      </c>
       <c r="D142" t="s">
         <v>652</v>
       </c>
@@ -12051,6 +12186,9 @@
       <c r="B145" t="s">
         <v>660</v>
       </c>
+      <c r="C145" t="s">
+        <v>2376</v>
+      </c>
       <c r="D145" t="s">
         <v>661</v>
       </c>
@@ -12106,6 +12244,9 @@
       <c r="B147" t="s">
         <v>667</v>
       </c>
+      <c r="C147" t="s">
+        <v>2376</v>
+      </c>
       <c r="D147" t="s">
         <v>668</v>
       </c>
@@ -12161,6 +12302,9 @@
       <c r="B149" t="s">
         <v>673</v>
       </c>
+      <c r="C149" t="s">
+        <v>2376</v>
+      </c>
       <c r="D149" t="s">
         <v>674</v>
       </c>
@@ -12216,6 +12360,9 @@
       <c r="B151" t="s">
         <v>681</v>
       </c>
+      <c r="C151" t="s">
+        <v>2376</v>
+      </c>
       <c r="D151" t="s">
         <v>682</v>
       </c>
@@ -12242,6 +12389,9 @@
       <c r="B152" t="s">
         <v>685</v>
       </c>
+      <c r="C152" t="s">
+        <v>2376</v>
+      </c>
       <c r="D152" t="s">
         <v>686</v>
       </c>
@@ -12297,6 +12447,9 @@
       <c r="B154" t="s">
         <v>695</v>
       </c>
+      <c r="C154" t="s">
+        <v>2376</v>
+      </c>
       <c r="D154" t="s">
         <v>692</v>
       </c>
@@ -12381,6 +12534,9 @@
       <c r="B157" t="s">
         <v>703</v>
       </c>
+      <c r="C157" t="s">
+        <v>2376</v>
+      </c>
       <c r="D157" t="s">
         <v>178</v>
       </c>
@@ -12436,6 +12592,9 @@
       <c r="B159" t="s">
         <v>709</v>
       </c>
+      <c r="C159" t="s">
+        <v>2376</v>
+      </c>
       <c r="D159" t="s">
         <v>710</v>
       </c>
@@ -12462,6 +12621,9 @@
       <c r="B160" t="s">
         <v>713</v>
       </c>
+      <c r="C160" t="s">
+        <v>2376</v>
+      </c>
       <c r="D160" t="s">
         <v>141</v>
       </c>
@@ -12546,6 +12708,9 @@
       <c r="B163" t="s">
         <v>724</v>
       </c>
+      <c r="C163" t="s">
+        <v>2376</v>
+      </c>
       <c r="D163" t="s">
         <v>146</v>
       </c>
@@ -12572,6 +12737,9 @@
       <c r="B164" t="s">
         <v>727</v>
       </c>
+      <c r="C164" t="s">
+        <v>2376</v>
+      </c>
       <c r="D164" t="s">
         <v>728</v>
       </c>
@@ -12685,6 +12853,9 @@
       <c r="B168" t="s">
         <v>736</v>
       </c>
+      <c r="C168" t="s">
+        <v>2376</v>
+      </c>
       <c r="D168" t="s">
         <v>737</v>
       </c>
@@ -12711,6 +12882,9 @@
       <c r="B169" t="s">
         <v>740</v>
       </c>
+      <c r="C169" t="s">
+        <v>2376</v>
+      </c>
       <c r="D169" t="s">
         <v>741</v>
       </c>
@@ -12737,6 +12911,9 @@
       <c r="B170" t="s">
         <v>743</v>
       </c>
+      <c r="C170" t="s">
+        <v>2376</v>
+      </c>
       <c r="D170" t="s">
         <v>166</v>
       </c>
@@ -12763,6 +12940,9 @@
       <c r="B171" t="s">
         <v>745</v>
       </c>
+      <c r="C171" t="s">
+        <v>2376</v>
+      </c>
       <c r="D171" t="s">
         <v>117</v>
       </c>
@@ -12789,6 +12969,9 @@
       <c r="B172" t="s">
         <v>749</v>
       </c>
+      <c r="C172" t="s">
+        <v>2376</v>
+      </c>
       <c r="D172" t="s">
         <v>117</v>
       </c>
@@ -12931,6 +13114,9 @@
       <c r="B177" t="s">
         <v>763</v>
       </c>
+      <c r="C177" t="s">
+        <v>2376</v>
+      </c>
       <c r="D177" t="s">
         <v>764</v>
       </c>
@@ -12957,6 +13143,9 @@
       <c r="B178" t="s">
         <v>767</v>
       </c>
+      <c r="C178" t="s">
+        <v>2376</v>
+      </c>
       <c r="D178" t="s">
         <v>764</v>
       </c>
@@ -12983,6 +13172,9 @@
       <c r="B179" t="s">
         <v>769</v>
       </c>
+      <c r="C179" t="s">
+        <v>2376</v>
+      </c>
       <c r="D179" t="s">
         <v>99</v>
       </c>
@@ -13009,6 +13201,9 @@
       <c r="B180" t="s">
         <v>771</v>
       </c>
+      <c r="C180" t="s">
+        <v>2376</v>
+      </c>
       <c r="D180" t="s">
         <v>772</v>
       </c>
@@ -13035,6 +13230,9 @@
       <c r="B181" t="s">
         <v>773</v>
       </c>
+      <c r="C181" t="s">
+        <v>2376</v>
+      </c>
       <c r="D181" t="s">
         <v>287</v>
       </c>
@@ -13061,6 +13259,9 @@
       <c r="B182" t="s">
         <v>776</v>
       </c>
+      <c r="C182" t="s">
+        <v>2376</v>
+      </c>
       <c r="D182" t="s">
         <v>777</v>
       </c>
@@ -13087,6 +13288,9 @@
       <c r="B183" t="s">
         <v>780</v>
       </c>
+      <c r="C183" t="s">
+        <v>2376</v>
+      </c>
       <c r="D183" t="s">
         <v>781</v>
       </c>
@@ -13229,6 +13433,9 @@
       <c r="B188" t="s">
         <v>795</v>
       </c>
+      <c r="C188" t="s">
+        <v>2376</v>
+      </c>
       <c r="D188" t="s">
         <v>87</v>
       </c>
@@ -13255,6 +13462,9 @@
       <c r="B189" t="s">
         <v>797</v>
       </c>
+      <c r="C189" t="s">
+        <v>2376</v>
+      </c>
       <c r="D189" t="s">
         <v>134</v>
       </c>
@@ -13310,6 +13520,9 @@
       <c r="B191" t="s">
         <v>803</v>
       </c>
+      <c r="C191" t="s">
+        <v>2376</v>
+      </c>
       <c r="D191" t="s">
         <v>804</v>
       </c>
@@ -13336,6 +13549,9 @@
       <c r="B192" t="s">
         <v>807</v>
       </c>
+      <c r="C192" t="s">
+        <v>2376</v>
+      </c>
       <c r="D192" t="s">
         <v>804</v>
       </c>
@@ -13362,6 +13578,9 @@
       <c r="B193" t="s">
         <v>810</v>
       </c>
+      <c r="C193" t="s">
+        <v>2376</v>
+      </c>
       <c r="D193" t="s">
         <v>62</v>
       </c>
@@ -13388,6 +13607,9 @@
       <c r="B194" t="s">
         <v>812</v>
       </c>
+      <c r="C194" t="s">
+        <v>2376</v>
+      </c>
       <c r="D194" t="s">
         <v>212</v>
       </c>
@@ -13414,6 +13636,9 @@
       <c r="B195" t="s">
         <v>815</v>
       </c>
+      <c r="C195" t="s">
+        <v>2376</v>
+      </c>
       <c r="D195" t="s">
         <v>212</v>
       </c>
@@ -13440,6 +13665,9 @@
       <c r="B196" t="s">
         <v>817</v>
       </c>
+      <c r="C196" t="s">
+        <v>2376</v>
+      </c>
       <c r="D196" t="s">
         <v>111</v>
       </c>
@@ -13524,6 +13752,9 @@
       <c r="B199" t="s">
         <v>829</v>
       </c>
+      <c r="C199" t="s">
+        <v>2376</v>
+      </c>
       <c r="D199" t="s">
         <v>319</v>
       </c>
@@ -13579,6 +13810,9 @@
       <c r="B201" t="s">
         <v>834</v>
       </c>
+      <c r="C201" t="s">
+        <v>2376</v>
+      </c>
       <c r="D201" t="s">
         <v>12</v>
       </c>
@@ -13605,6 +13839,9 @@
       <c r="B202" t="s">
         <v>836</v>
       </c>
+      <c r="C202" t="s">
+        <v>2376</v>
+      </c>
       <c r="D202" t="s">
         <v>49</v>
       </c>
@@ -13631,6 +13868,9 @@
       <c r="B203" t="s">
         <v>839</v>
       </c>
+      <c r="C203" t="s">
+        <v>2376</v>
+      </c>
       <c r="D203" t="s">
         <v>59</v>
       </c>
@@ -13744,6 +13984,9 @@
       <c r="B207" t="s">
         <v>848</v>
       </c>
+      <c r="C207" t="s">
+        <v>2376</v>
+      </c>
       <c r="D207" t="s">
         <v>849</v>
       </c>
@@ -13770,6 +14013,9 @@
       <c r="B208" t="s">
         <v>852</v>
       </c>
+      <c r="C208" t="s">
+        <v>2376</v>
+      </c>
       <c r="D208" t="s">
         <v>330</v>
       </c>
@@ -13825,6 +14071,9 @@
       <c r="B210" t="s">
         <v>856</v>
       </c>
+      <c r="C210" t="s">
+        <v>2376</v>
+      </c>
       <c r="D210" t="s">
         <v>51</v>
       </c>
@@ -13938,6 +14187,9 @@
       <c r="B214" t="s">
         <v>866</v>
       </c>
+      <c r="C214" t="s">
+        <v>2376</v>
+      </c>
       <c r="D214" t="s">
         <v>867</v>
       </c>
@@ -14022,6 +14274,9 @@
       <c r="B217" t="s">
         <v>874</v>
       </c>
+      <c r="C217" t="s">
+        <v>2376</v>
+      </c>
       <c r="D217" t="s">
         <v>873</v>
       </c>
@@ -14048,6 +14303,9 @@
       <c r="B218" t="s">
         <v>877</v>
       </c>
+      <c r="C218" t="s">
+        <v>2376</v>
+      </c>
       <c r="D218" t="s">
         <v>873</v>
       </c>
@@ -14161,6 +14419,9 @@
       <c r="B222" t="s">
         <v>885</v>
       </c>
+      <c r="C222" t="s">
+        <v>2376</v>
+      </c>
       <c r="D222" t="s">
         <v>222</v>
       </c>
@@ -14187,6 +14448,9 @@
       <c r="B223" t="s">
         <v>887</v>
       </c>
+      <c r="C223" t="s">
+        <v>2376</v>
+      </c>
       <c r="D223" t="s">
         <v>888</v>
       </c>
@@ -14271,6 +14535,9 @@
       <c r="B226" t="s">
         <v>895</v>
       </c>
+      <c r="C226" t="s">
+        <v>2376</v>
+      </c>
       <c r="D226" t="s">
         <v>81</v>
       </c>
@@ -14297,6 +14564,9 @@
       <c r="B227" t="s">
         <v>898</v>
       </c>
+      <c r="C227" t="s">
+        <v>2376</v>
+      </c>
       <c r="D227" t="s">
         <v>81</v>
       </c>
@@ -14323,6 +14593,9 @@
       <c r="B228" t="s">
         <v>899</v>
       </c>
+      <c r="C228" t="s">
+        <v>2376</v>
+      </c>
       <c r="D228" t="s">
         <v>81</v>
       </c>
@@ -14349,6 +14622,9 @@
       <c r="B229" t="s">
         <v>900</v>
       </c>
+      <c r="C229" t="s">
+        <v>2376</v>
+      </c>
       <c r="D229" t="s">
         <v>901</v>
       </c>
@@ -14433,6 +14709,9 @@
       <c r="B232" t="s">
         <v>909</v>
       </c>
+      <c r="C232" t="s">
+        <v>2376</v>
+      </c>
       <c r="D232" t="s">
         <v>904</v>
       </c>
@@ -14459,6 +14738,9 @@
       <c r="B233" t="s">
         <v>911</v>
       </c>
+      <c r="C233" t="s">
+        <v>2376</v>
+      </c>
       <c r="D233" t="s">
         <v>912</v>
       </c>
@@ -14485,6 +14767,9 @@
       <c r="B234" t="s">
         <v>916</v>
       </c>
+      <c r="C234" t="s">
+        <v>2376</v>
+      </c>
       <c r="D234" t="s">
         <v>95</v>
       </c>
@@ -14540,6 +14825,9 @@
       <c r="B236" t="s">
         <v>920</v>
       </c>
+      <c r="C236" t="s">
+        <v>2376</v>
+      </c>
       <c r="D236" t="s">
         <v>95</v>
       </c>
@@ -14653,6 +14941,9 @@
       <c r="B240" t="s">
         <v>930</v>
       </c>
+      <c r="C240" t="s">
+        <v>2376</v>
+      </c>
       <c r="D240" t="s">
         <v>381</v>
       </c>
@@ -14737,6 +15028,9 @@
       <c r="B243" t="s">
         <v>938</v>
       </c>
+      <c r="C243" t="s">
+        <v>2376</v>
+      </c>
       <c r="D243" t="s">
         <v>46</v>
       </c>
@@ -14821,6 +15115,9 @@
       <c r="B246" t="s">
         <v>946</v>
       </c>
+      <c r="C246" t="s">
+        <v>2376</v>
+      </c>
       <c r="D246" t="s">
         <v>55</v>
       </c>
@@ -14876,6 +15173,9 @@
       <c r="B248" t="s">
         <v>950</v>
       </c>
+      <c r="C248" t="s">
+        <v>2376</v>
+      </c>
       <c r="D248" t="s">
         <v>55</v>
       </c>
@@ -14931,6 +15231,9 @@
       <c r="B250" t="s">
         <v>956</v>
       </c>
+      <c r="C250" t="s">
+        <v>2376</v>
+      </c>
       <c r="D250" t="s">
         <v>121</v>
       </c>
@@ -14957,6 +15260,9 @@
       <c r="B251" t="s">
         <v>958</v>
       </c>
+      <c r="C251" t="s">
+        <v>2376</v>
+      </c>
       <c r="D251" t="s">
         <v>121</v>
       </c>
@@ -14983,6 +15289,9 @@
       <c r="B252" t="s">
         <v>960</v>
       </c>
+      <c r="C252" t="s">
+        <v>2376</v>
+      </c>
       <c r="D252" t="s">
         <v>121</v>
       </c>
@@ -15067,6 +15376,9 @@
       <c r="B255" t="s">
         <v>968</v>
       </c>
+      <c r="C255" t="s">
+        <v>2376</v>
+      </c>
       <c r="D255" t="s">
         <v>121</v>
       </c>
@@ -15267,6 +15579,9 @@
       <c r="B262" t="s">
         <v>986</v>
       </c>
+      <c r="C262" t="s">
+        <v>2376</v>
+      </c>
       <c r="D262" t="s">
         <v>53</v>
       </c>
@@ -15351,6 +15666,9 @@
       <c r="B265" t="s">
         <v>993</v>
       </c>
+      <c r="C265" t="s">
+        <v>2376</v>
+      </c>
       <c r="D265" t="s">
         <v>53</v>
       </c>
@@ -15464,6 +15782,9 @@
       <c r="B269" t="s">
         <v>1001</v>
       </c>
+      <c r="C269" t="s">
+        <v>2376</v>
+      </c>
       <c r="D269" t="s">
         <v>61</v>
       </c>
@@ -15490,6 +15811,9 @@
       <c r="B270" t="s">
         <v>1003</v>
       </c>
+      <c r="C270" t="s">
+        <v>2376</v>
+      </c>
       <c r="D270" t="s">
         <v>61</v>
       </c>
@@ -15545,6 +15869,9 @@
       <c r="B272" t="s">
         <v>1008</v>
       </c>
+      <c r="C272" t="s">
+        <v>2376</v>
+      </c>
       <c r="D272" t="s">
         <v>61</v>
       </c>
@@ -15571,6 +15898,9 @@
       <c r="B273" t="s">
         <v>1010</v>
       </c>
+      <c r="C273" t="s">
+        <v>2376</v>
+      </c>
       <c r="D273" t="s">
         <v>116</v>
       </c>
@@ -15626,6 +15956,9 @@
       <c r="B275" t="s">
         <v>1015</v>
       </c>
+      <c r="C275" t="s">
+        <v>2376</v>
+      </c>
       <c r="D275" t="s">
         <v>116</v>
       </c>
@@ -15710,6 +16043,9 @@
       <c r="B278" t="s">
         <v>1021</v>
       </c>
+      <c r="C278" t="s">
+        <v>2376</v>
+      </c>
       <c r="D278" t="s">
         <v>69</v>
       </c>
@@ -15823,6 +16159,9 @@
       <c r="B282" t="s">
         <v>1027</v>
       </c>
+      <c r="C282" t="s">
+        <v>2376</v>
+      </c>
       <c r="D282" t="s">
         <v>32</v>
       </c>
@@ -15849,6 +16188,9 @@
       <c r="B283" t="s">
         <v>1030</v>
       </c>
+      <c r="C283" t="s">
+        <v>2376</v>
+      </c>
       <c r="D283" t="s">
         <v>32</v>
       </c>
@@ -15875,6 +16217,9 @@
       <c r="B284" t="s">
         <v>1033</v>
       </c>
+      <c r="C284" t="s">
+        <v>2376</v>
+      </c>
       <c r="D284" t="s">
         <v>156</v>
       </c>
@@ -15959,6 +16304,9 @@
       <c r="B287" t="s">
         <v>1038</v>
       </c>
+      <c r="C287" t="s">
+        <v>2376</v>
+      </c>
       <c r="D287" t="s">
         <v>156</v>
       </c>
@@ -15985,6 +16333,9 @@
       <c r="B288" t="s">
         <v>1041</v>
       </c>
+      <c r="C288" t="s">
+        <v>2376</v>
+      </c>
       <c r="D288" t="s">
         <v>7</v>
       </c>
@@ -16040,6 +16391,9 @@
       <c r="B290" t="s">
         <v>1046</v>
       </c>
+      <c r="C290" t="s">
+        <v>2376</v>
+      </c>
       <c r="D290" t="s">
         <v>40</v>
       </c>
@@ -16066,6 +16420,9 @@
       <c r="B291" t="s">
         <v>1048</v>
       </c>
+      <c r="C291" t="s">
+        <v>2376</v>
+      </c>
       <c r="D291" t="s">
         <v>40</v>
       </c>
@@ -16092,6 +16449,9 @@
       <c r="B292" t="s">
         <v>1051</v>
       </c>
+      <c r="C292" t="s">
+        <v>2376</v>
+      </c>
       <c r="D292" t="s">
         <v>40</v>
       </c>
@@ -16118,6 +16478,9 @@
       <c r="B293" t="s">
         <v>1053</v>
       </c>
+      <c r="C293" t="s">
+        <v>2376</v>
+      </c>
       <c r="D293" t="s">
         <v>40</v>
       </c>
@@ -16173,6 +16536,9 @@
       <c r="B295" t="s">
         <v>1057</v>
       </c>
+      <c r="C295" t="s">
+        <v>2376</v>
+      </c>
       <c r="D295" t="s">
         <v>40</v>
       </c>
@@ -16257,6 +16623,9 @@
       <c r="B298" t="s">
         <v>1062</v>
       </c>
+      <c r="C298" t="s">
+        <v>2376</v>
+      </c>
       <c r="D298" t="s">
         <v>44</v>
       </c>
@@ -16283,6 +16652,9 @@
       <c r="B299" t="s">
         <v>1063</v>
       </c>
+      <c r="C299" t="s">
+        <v>2376</v>
+      </c>
       <c r="D299" t="s">
         <v>44</v>
       </c>
@@ -16309,6 +16681,9 @@
       <c r="B300" t="s">
         <v>1066</v>
       </c>
+      <c r="C300" t="s">
+        <v>2376</v>
+      </c>
       <c r="D300" t="s">
         <v>102</v>
       </c>
@@ -16364,6 +16739,9 @@
       <c r="B302" t="s">
         <v>1069</v>
       </c>
+      <c r="C302" t="s">
+        <v>2376</v>
+      </c>
       <c r="D302" t="s">
         <v>102</v>
       </c>
@@ -16419,6 +16797,9 @@
       <c r="B304" t="s">
         <v>1073</v>
       </c>
+      <c r="C304" t="s">
+        <v>2376</v>
+      </c>
       <c r="D304" t="s">
         <v>102</v>
       </c>
@@ -16474,6 +16855,9 @@
       <c r="B306" t="s">
         <v>1079</v>
       </c>
+      <c r="C306" t="s">
+        <v>2376</v>
+      </c>
       <c r="D306" t="s">
         <v>102</v>
       </c>
@@ -16500,6 +16884,9 @@
       <c r="B307" t="s">
         <v>1081</v>
       </c>
+      <c r="C307" t="s">
+        <v>2376</v>
+      </c>
       <c r="D307" t="s">
         <v>77</v>
       </c>
@@ -16526,6 +16913,9 @@
       <c r="B308" t="s">
         <v>1082</v>
       </c>
+      <c r="C308" t="s">
+        <v>2376</v>
+      </c>
       <c r="D308" t="s">
         <v>77</v>
       </c>
@@ -16610,6 +17000,9 @@
       <c r="B311" t="s">
         <v>1091</v>
       </c>
+      <c r="C311" t="s">
+        <v>2376</v>
+      </c>
       <c r="D311" t="s">
         <v>39</v>
       </c>
@@ -16636,6 +17029,9 @@
       <c r="B312" t="s">
         <v>1094</v>
       </c>
+      <c r="C312" t="s">
+        <v>2376</v>
+      </c>
       <c r="D312" t="s">
         <v>39</v>
       </c>
@@ -16662,6 +17058,9 @@
       <c r="B313" t="s">
         <v>1095</v>
       </c>
+      <c r="C313" t="s">
+        <v>2376</v>
+      </c>
       <c r="D313" t="s">
         <v>39</v>
       </c>
@@ -16688,6 +17087,9 @@
       <c r="B314" t="s">
         <v>1096</v>
       </c>
+      <c r="C314" t="s">
+        <v>2376</v>
+      </c>
       <c r="D314" t="s">
         <v>91</v>
       </c>
@@ -16743,6 +17145,9 @@
       <c r="B316" t="s">
         <v>1100</v>
       </c>
+      <c r="C316" t="s">
+        <v>2376</v>
+      </c>
       <c r="D316" t="s">
         <v>91</v>
       </c>
@@ -16798,6 +17203,9 @@
       <c r="B318" t="s">
         <v>1105</v>
       </c>
+      <c r="C318" t="s">
+        <v>2376</v>
+      </c>
       <c r="D318" t="s">
         <v>91</v>
       </c>
@@ -16824,6 +17232,9 @@
       <c r="B319" t="s">
         <v>1107</v>
       </c>
+      <c r="C319" t="s">
+        <v>2376</v>
+      </c>
       <c r="D319" t="s">
         <v>171</v>
       </c>
@@ -16850,6 +17261,9 @@
       <c r="B320" t="s">
         <v>1108</v>
       </c>
+      <c r="C320" t="s">
+        <v>2376</v>
+      </c>
       <c r="D320" t="s">
         <v>171</v>
       </c>
@@ -16934,6 +17348,9 @@
       <c r="B323" t="s">
         <v>1113</v>
       </c>
+      <c r="C323" t="s">
+        <v>2376</v>
+      </c>
       <c r="D323" t="s">
         <v>171</v>
       </c>
@@ -16960,6 +17377,9 @@
       <c r="B324" t="s">
         <v>1116</v>
       </c>
+      <c r="C324" t="s">
+        <v>2376</v>
+      </c>
       <c r="D324" t="s">
         <v>171</v>
       </c>
@@ -16986,6 +17406,9 @@
       <c r="B325" t="s">
         <v>1117</v>
       </c>
+      <c r="C325" t="s">
+        <v>2376</v>
+      </c>
       <c r="D325" t="s">
         <v>171</v>
       </c>
@@ -17012,6 +17435,9 @@
       <c r="B326" t="s">
         <v>1119</v>
       </c>
+      <c r="C326" t="s">
+        <v>2376</v>
+      </c>
       <c r="D326" t="s">
         <v>135</v>
       </c>
@@ -17125,6 +17551,9 @@
       <c r="B330" t="s">
         <v>1129</v>
       </c>
+      <c r="C330" t="s">
+        <v>2376</v>
+      </c>
       <c r="D330" t="s">
         <v>57</v>
       </c>
@@ -17180,6 +17609,9 @@
       <c r="B332" t="s">
         <v>1119</v>
       </c>
+      <c r="C332" t="s">
+        <v>2376</v>
+      </c>
       <c r="D332" t="s">
         <v>135</v>
       </c>
@@ -17467,6 +17899,9 @@
       <c r="B342" t="s">
         <v>1155</v>
       </c>
+      <c r="C342" t="s">
+        <v>2376</v>
+      </c>
       <c r="D342" t="s">
         <v>129</v>
       </c>
@@ -17493,6 +17928,9 @@
       <c r="B343" t="s">
         <v>1158</v>
       </c>
+      <c r="C343" t="s">
+        <v>2376</v>
+      </c>
       <c r="D343" t="s">
         <v>48</v>
       </c>
@@ -17664,6 +18102,9 @@
       <c r="B349" t="s">
         <v>1172</v>
       </c>
+      <c r="C349" t="s">
+        <v>2376</v>
+      </c>
       <c r="D349" t="s">
         <v>1173</v>
       </c>
@@ -17922,6 +18363,9 @@
       <c r="B358" t="s">
         <v>1190</v>
       </c>
+      <c r="C358" t="s">
+        <v>2376</v>
+      </c>
       <c r="D358" t="s">
         <v>95</v>
       </c>
@@ -18122,6 +18566,9 @@
       <c r="B365" t="s">
         <v>1206</v>
       </c>
+      <c r="C365" t="s">
+        <v>2376</v>
+      </c>
       <c r="D365" t="s">
         <v>102</v>
       </c>
@@ -18206,6 +18653,9 @@
       <c r="B368" t="s">
         <v>1211</v>
       </c>
+      <c r="C368" t="s">
+        <v>2376</v>
+      </c>
       <c r="D368" t="s">
         <v>39</v>
       </c>
@@ -18232,6 +18682,9 @@
       <c r="B369" t="s">
         <v>1212</v>
       </c>
+      <c r="C369" t="s">
+        <v>2376</v>
+      </c>
       <c r="D369" t="s">
         <v>135</v>
       </c>
@@ -18316,6 +18769,9 @@
       <c r="B372" t="s">
         <v>1220</v>
       </c>
+      <c r="C372" t="s">
+        <v>2376</v>
+      </c>
       <c r="D372" t="s">
         <v>135</v>
       </c>
@@ -18371,6 +18827,9 @@
       <c r="B374" t="s">
         <v>1226</v>
       </c>
+      <c r="C374" t="s">
+        <v>2376</v>
+      </c>
       <c r="D374" t="s">
         <v>57</v>
       </c>
@@ -18426,6 +18885,9 @@
       <c r="B376" t="s">
         <v>1212</v>
       </c>
+      <c r="C376" t="s">
+        <v>2376</v>
+      </c>
       <c r="D376" t="s">
         <v>135</v>
       </c>
@@ -18510,6 +18972,9 @@
       <c r="B379" t="s">
         <v>1220</v>
       </c>
+      <c r="C379" t="s">
+        <v>2376</v>
+      </c>
       <c r="D379" t="s">
         <v>135</v>
       </c>
@@ -18623,6 +19088,9 @@
       <c r="B383" t="s">
         <v>1239</v>
       </c>
+      <c r="C383" t="s">
+        <v>2376</v>
+      </c>
       <c r="D383" t="s">
         <v>81</v>
       </c>
@@ -18649,6 +19117,9 @@
       <c r="B384" t="s">
         <v>1242</v>
       </c>
+      <c r="C384" t="s">
+        <v>2376</v>
+      </c>
       <c r="D384" t="s">
         <v>46</v>
       </c>
@@ -18675,6 +19146,9 @@
       <c r="B385" t="s">
         <v>1245</v>
       </c>
+      <c r="C385" t="s">
+        <v>2376</v>
+      </c>
       <c r="D385" t="s">
         <v>55</v>
       </c>
@@ -18730,6 +19204,9 @@
       <c r="B387" t="s">
         <v>1247</v>
       </c>
+      <c r="C387" t="s">
+        <v>2376</v>
+      </c>
       <c r="D387" t="s">
         <v>91</v>
       </c>
@@ -18756,6 +19233,9 @@
       <c r="B388" t="s">
         <v>1249</v>
       </c>
+      <c r="C388" t="s">
+        <v>2376</v>
+      </c>
       <c r="D388" t="s">
         <v>135</v>
       </c>
@@ -18782,6 +19262,9 @@
       <c r="B389" t="s">
         <v>1249</v>
       </c>
+      <c r="C389" t="s">
+        <v>2376</v>
+      </c>
       <c r="D389" t="s">
         <v>135</v>
       </c>
@@ -18808,6 +19291,9 @@
       <c r="B390" t="s">
         <v>1251</v>
       </c>
+      <c r="C390" t="s">
+        <v>2376</v>
+      </c>
       <c r="D390" t="s">
         <v>319</v>
       </c>
@@ -18950,6 +19436,9 @@
       <c r="B395" t="s">
         <v>1265</v>
       </c>
+      <c r="C395" t="s">
+        <v>2376</v>
+      </c>
       <c r="D395" t="s">
         <v>1266</v>
       </c>
@@ -19005,6 +19494,9 @@
       <c r="B397" t="s">
         <v>1272</v>
       </c>
+      <c r="C397" t="s">
+        <v>2376</v>
+      </c>
       <c r="D397" t="s">
         <v>64</v>
       </c>
@@ -19147,6 +19639,9 @@
       <c r="B402" t="s">
         <v>1287</v>
       </c>
+      <c r="C402" t="s">
+        <v>2376</v>
+      </c>
       <c r="D402" t="s">
         <v>1288</v>
       </c>
@@ -19260,6 +19755,9 @@
       <c r="B406" t="s">
         <v>1300</v>
       </c>
+      <c r="C406" t="s">
+        <v>2376</v>
+      </c>
       <c r="D406" t="s">
         <v>777</v>
       </c>
@@ -19518,6 +20016,9 @@
       <c r="B415" t="s">
         <v>1327</v>
       </c>
+      <c r="C415" t="s">
+        <v>2376</v>
+      </c>
       <c r="D415" t="s">
         <v>311</v>
       </c>
@@ -19631,6 +20132,9 @@
       <c r="B419" t="s">
         <v>1336</v>
       </c>
+      <c r="C419" t="s">
+        <v>2376</v>
+      </c>
       <c r="D419" t="s">
         <v>59</v>
       </c>
@@ -19657,6 +20161,9 @@
       <c r="B420" t="s">
         <v>1338</v>
       </c>
+      <c r="C420" t="s">
+        <v>2376</v>
+      </c>
       <c r="D420" t="s">
         <v>1339</v>
       </c>
@@ -19683,6 +20190,9 @@
       <c r="B421" t="s">
         <v>1343</v>
       </c>
+      <c r="C421" t="s">
+        <v>2376</v>
+      </c>
       <c r="D421" t="s">
         <v>330</v>
       </c>
@@ -19709,6 +20219,9 @@
       <c r="B422" t="s">
         <v>1345</v>
       </c>
+      <c r="C422" t="s">
+        <v>2376</v>
+      </c>
       <c r="D422" t="s">
         <v>51</v>
       </c>
@@ -20083,6 +20596,9 @@
       <c r="B435" t="s">
         <v>1377</v>
       </c>
+      <c r="C435" t="s">
+        <v>2376</v>
+      </c>
       <c r="D435" t="s">
         <v>66</v>
       </c>
@@ -20138,6 +20654,9 @@
       <c r="B437" t="s">
         <v>1382</v>
       </c>
+      <c r="C437" t="s">
+        <v>2376</v>
+      </c>
       <c r="D437" t="s">
         <v>66</v>
       </c>
@@ -20222,6 +20741,9 @@
       <c r="B440" t="s">
         <v>1388</v>
       </c>
+      <c r="C440" t="s">
+        <v>2376</v>
+      </c>
       <c r="D440" t="s">
         <v>53</v>
       </c>
@@ -20364,6 +20886,9 @@
       <c r="B445" t="s">
         <v>1401</v>
       </c>
+      <c r="C445" t="s">
+        <v>2376</v>
+      </c>
       <c r="D445" t="s">
         <v>32</v>
       </c>
@@ -20419,6 +20944,9 @@
       <c r="B447" t="s">
         <v>1408</v>
       </c>
+      <c r="C447" t="s">
+        <v>2376</v>
+      </c>
       <c r="D447" t="s">
         <v>156</v>
       </c>
@@ -20445,6 +20973,9 @@
       <c r="B448" t="s">
         <v>1411</v>
       </c>
+      <c r="C448" t="s">
+        <v>2376</v>
+      </c>
       <c r="D448" t="s">
         <v>40</v>
       </c>
@@ -20529,6 +21060,9 @@
       <c r="B451" t="s">
         <v>1417</v>
       </c>
+      <c r="C451" t="s">
+        <v>2376</v>
+      </c>
       <c r="D451" t="s">
         <v>40</v>
       </c>
@@ -20613,6 +21147,9 @@
       <c r="B454" t="s">
         <v>1425</v>
       </c>
+      <c r="C454" t="s">
+        <v>2376</v>
+      </c>
       <c r="D454" t="s">
         <v>102</v>
       </c>
@@ -20639,6 +21176,9 @@
       <c r="B455" t="s">
         <v>1427</v>
       </c>
+      <c r="C455" t="s">
+        <v>2376</v>
+      </c>
       <c r="D455" t="s">
         <v>77</v>
       </c>
@@ -20723,6 +21263,9 @@
       <c r="B458" t="s">
         <v>1433</v>
       </c>
+      <c r="C458" t="s">
+        <v>2376</v>
+      </c>
       <c r="D458" t="s">
         <v>171</v>
       </c>
@@ -20778,6 +21321,9 @@
       <c r="B460" t="s">
         <v>1433</v>
       </c>
+      <c r="C460" t="s">
+        <v>2376</v>
+      </c>
       <c r="D460" t="s">
         <v>171</v>
       </c>
@@ -20891,6 +21437,9 @@
       <c r="B464" t="s">
         <v>1446</v>
       </c>
+      <c r="C464" t="s">
+        <v>2376</v>
+      </c>
       <c r="D464" t="s">
         <v>1447</v>
       </c>
@@ -20917,6 +21466,9 @@
       <c r="B465" t="s">
         <v>1451</v>
       </c>
+      <c r="C465" t="s">
+        <v>2376</v>
+      </c>
       <c r="D465" t="s">
         <v>1452</v>
       </c>
@@ -20943,6 +21495,9 @@
       <c r="B466" t="s">
         <v>1454</v>
       </c>
+      <c r="C466" t="s">
+        <v>2376</v>
+      </c>
       <c r="D466" t="s">
         <v>1455</v>
       </c>
@@ -20969,6 +21524,9 @@
       <c r="B467" t="s">
         <v>1456</v>
       </c>
+      <c r="C467" t="s">
+        <v>2376</v>
+      </c>
       <c r="D467" t="s">
         <v>113</v>
       </c>
@@ -21111,6 +21669,9 @@
       <c r="B472" t="s">
         <v>1468</v>
       </c>
+      <c r="C472" t="s">
+        <v>2376</v>
+      </c>
       <c r="D472" t="s">
         <v>1469</v>
       </c>
@@ -21137,6 +21698,9 @@
       <c r="B473" t="s">
         <v>1472</v>
       </c>
+      <c r="C473" t="s">
+        <v>2376</v>
+      </c>
       <c r="D473" t="s">
         <v>1288</v>
       </c>
@@ -21482,6 +22046,9 @@
       <c r="B485" t="s">
         <v>1502</v>
       </c>
+      <c r="C485" t="s">
+        <v>2376</v>
+      </c>
       <c r="D485" t="s">
         <v>461</v>
       </c>
@@ -21769,6 +22336,9 @@
       <c r="B495" t="s">
         <v>1529</v>
       </c>
+      <c r="C495" t="s">
+        <v>2376</v>
+      </c>
       <c r="D495" t="s">
         <v>222</v>
       </c>
@@ -22346,6 +22916,9 @@
       <c r="B515" t="s">
         <v>1576</v>
       </c>
+      <c r="C515" t="s">
+        <v>2376</v>
+      </c>
       <c r="D515" t="s">
         <v>741</v>
       </c>
@@ -22459,6 +23032,9 @@
       <c r="B519" t="s">
         <v>1586</v>
       </c>
+      <c r="C519" t="s">
+        <v>2376</v>
+      </c>
       <c r="D519" t="s">
         <v>131</v>
       </c>
@@ -22601,6 +23177,9 @@
       <c r="B524" t="s">
         <v>1598</v>
       </c>
+      <c r="C524" t="s">
+        <v>2376</v>
+      </c>
       <c r="D524" t="s">
         <v>1599</v>
       </c>
@@ -22627,6 +23206,9 @@
       <c r="B525" t="s">
         <v>1602</v>
       </c>
+      <c r="C525" t="s">
+        <v>2376</v>
+      </c>
       <c r="D525" t="s">
         <v>1603</v>
       </c>
@@ -22653,6 +23235,9 @@
       <c r="B526" t="s">
         <v>1606</v>
       </c>
+      <c r="C526" t="s">
+        <v>2376</v>
+      </c>
       <c r="D526" t="s">
         <v>682</v>
       </c>
@@ -22853,6 +23438,9 @@
       <c r="B533" t="s">
         <v>1622</v>
       </c>
+      <c r="C533" t="s">
+        <v>2376</v>
+      </c>
       <c r="D533" t="s">
         <v>73</v>
       </c>
@@ -22966,6 +23554,9 @@
       <c r="B537" t="s">
         <v>1629</v>
       </c>
+      <c r="C537" t="s">
+        <v>2376</v>
+      </c>
       <c r="D537" t="s">
         <v>222</v>
       </c>
@@ -22992,6 +23583,9 @@
       <c r="B538" t="s">
         <v>1631</v>
       </c>
+      <c r="C538" t="s">
+        <v>2376</v>
+      </c>
       <c r="D538" t="s">
         <v>222</v>
       </c>
@@ -23018,6 +23612,9 @@
       <c r="B539" t="s">
         <v>1635</v>
       </c>
+      <c r="C539" t="s">
+        <v>2376</v>
+      </c>
       <c r="D539" t="s">
         <v>126</v>
       </c>
@@ -23044,6 +23641,9 @@
       <c r="B540" t="s">
         <v>1636</v>
       </c>
+      <c r="C540" t="s">
+        <v>2376</v>
+      </c>
       <c r="D540" t="s">
         <v>121</v>
       </c>
@@ -23331,6 +23931,9 @@
       <c r="B550" t="s">
         <v>1658</v>
       </c>
+      <c r="C550" t="s">
+        <v>2376</v>
+      </c>
       <c r="D550" t="s">
         <v>1659</v>
       </c>
@@ -23705,6 +24308,9 @@
       <c r="B563" t="s">
         <v>1709</v>
       </c>
+      <c r="C563" t="s">
+        <v>2376</v>
+      </c>
       <c r="D563" t="s">
         <v>1710</v>
       </c>
@@ -23731,6 +24337,9 @@
       <c r="B564" t="s">
         <v>1713</v>
       </c>
+      <c r="C564" t="s">
+        <v>2376</v>
+      </c>
       <c r="D564" t="s">
         <v>1714</v>
       </c>
@@ -23757,6 +24366,9 @@
       <c r="B565" t="s">
         <v>1717</v>
       </c>
+      <c r="C565" t="s">
+        <v>2376</v>
+      </c>
       <c r="D565" t="s">
         <v>1718</v>
       </c>
@@ -23783,6 +24395,9 @@
       <c r="B566" t="s">
         <v>1719</v>
       </c>
+      <c r="C566" t="s">
+        <v>2376</v>
+      </c>
       <c r="D566" t="s">
         <v>119</v>
       </c>
@@ -23896,6 +24511,9 @@
       <c r="B570" t="s">
         <v>1728</v>
       </c>
+      <c r="C570" t="s">
+        <v>2376</v>
+      </c>
       <c r="D570" t="s">
         <v>1729</v>
       </c>
@@ -24096,6 +24714,9 @@
       <c r="B577" t="s">
         <v>1749</v>
       </c>
+      <c r="C577" t="s">
+        <v>2376</v>
+      </c>
       <c r="D577" t="s">
         <v>194</v>
       </c>
@@ -24325,6 +24946,9 @@
       <c r="B585" t="s">
         <v>1776</v>
       </c>
+      <c r="C585" t="s">
+        <v>2376</v>
+      </c>
       <c r="D585" t="s">
         <v>272</v>
       </c>
@@ -24612,6 +25236,9 @@
       <c r="B595" t="s">
         <v>1810</v>
       </c>
+      <c r="C595" t="s">
+        <v>2376</v>
+      </c>
       <c r="D595" t="s">
         <v>1455</v>
       </c>
@@ -24638,6 +25265,9 @@
       <c r="B596" t="s">
         <v>1813</v>
       </c>
+      <c r="C596" t="s">
+        <v>2376</v>
+      </c>
       <c r="D596" t="s">
         <v>16</v>
       </c>
@@ -24867,6 +25497,9 @@
       <c r="B604" t="s">
         <v>1835</v>
       </c>
+      <c r="C604" t="s">
+        <v>2376</v>
+      </c>
       <c r="D604" t="s">
         <v>99</v>
       </c>
@@ -24893,6 +25526,9 @@
       <c r="B605" t="s">
         <v>1837</v>
       </c>
+      <c r="C605" t="s">
+        <v>2376</v>
+      </c>
       <c r="D605" t="s">
         <v>99</v>
       </c>
@@ -25093,6 +25729,9 @@
       <c r="B612" t="s">
         <v>1859</v>
       </c>
+      <c r="C612" t="s">
+        <v>2376</v>
+      </c>
       <c r="D612" t="s">
         <v>25</v>
       </c>
@@ -25467,6 +26106,9 @@
       <c r="B625" t="s">
         <v>1894</v>
       </c>
+      <c r="C625" t="s">
+        <v>2376</v>
+      </c>
       <c r="D625" t="s">
         <v>48</v>
       </c>
@@ -25667,6 +26309,9 @@
       <c r="B632" t="s">
         <v>1909</v>
       </c>
+      <c r="C632" t="s">
+        <v>2376</v>
+      </c>
       <c r="D632" t="s">
         <v>804</v>
       </c>
@@ -25780,6 +26425,9 @@
       <c r="B636" t="s">
         <v>1918</v>
       </c>
+      <c r="C636" t="s">
+        <v>2376</v>
+      </c>
       <c r="D636" t="s">
         <v>1919</v>
       </c>
@@ -26357,6 +27005,9 @@
       <c r="B656" t="s">
         <v>1970</v>
       </c>
+      <c r="C656" t="s">
+        <v>2376</v>
+      </c>
       <c r="D656" t="s">
         <v>330</v>
       </c>
@@ -26441,6 +27092,9 @@
       <c r="B659" t="s">
         <v>1976</v>
       </c>
+      <c r="C659" t="s">
+        <v>2376</v>
+      </c>
       <c r="D659" t="s">
         <v>330</v>
       </c>
@@ -26467,6 +27121,9 @@
       <c r="B660" t="s">
         <v>1978</v>
       </c>
+      <c r="C660" t="s">
+        <v>2376</v>
+      </c>
       <c r="D660" t="s">
         <v>330</v>
       </c>
@@ -26812,6 +27469,9 @@
       <c r="B672" t="s">
         <v>2006</v>
       </c>
+      <c r="C672" t="s">
+        <v>2376</v>
+      </c>
       <c r="D672" t="s">
         <v>873</v>
       </c>
@@ -27215,6 +27875,9 @@
       <c r="B686" t="s">
         <v>2041</v>
       </c>
+      <c r="C686" t="s">
+        <v>2376</v>
+      </c>
       <c r="D686" t="s">
         <v>126</v>
       </c>
@@ -27444,6 +28107,9 @@
       <c r="B694" t="s">
         <v>2056</v>
       </c>
+      <c r="C694" t="s">
+        <v>2376</v>
+      </c>
       <c r="D694" t="s">
         <v>904</v>
       </c>
@@ -27557,6 +28223,9 @@
       <c r="B698" t="s">
         <v>2065</v>
       </c>
+      <c r="C698" t="s">
+        <v>2376</v>
+      </c>
       <c r="D698" t="s">
         <v>95</v>
       </c>
@@ -27612,6 +28281,9 @@
       <c r="B700" t="s">
         <v>2067</v>
       </c>
+      <c r="C700" t="s">
+        <v>2376</v>
+      </c>
       <c r="D700" t="s">
         <v>95</v>
       </c>
@@ -27812,6 +28484,9 @@
       <c r="B707" t="s">
         <v>2083</v>
       </c>
+      <c r="C707" t="s">
+        <v>2376</v>
+      </c>
       <c r="D707" t="s">
         <v>46</v>
       </c>
@@ -27838,6 +28513,9 @@
       <c r="B708" t="s">
         <v>2084</v>
       </c>
+      <c r="C708" t="s">
+        <v>2376</v>
+      </c>
       <c r="D708" t="s">
         <v>46</v>
       </c>
@@ -27864,6 +28542,9 @@
       <c r="B709" t="s">
         <v>2086</v>
       </c>
+      <c r="C709" t="s">
+        <v>2376</v>
+      </c>
       <c r="D709" t="s">
         <v>46</v>
       </c>
@@ -27890,6 +28571,9 @@
       <c r="B710" t="s">
         <v>2088</v>
       </c>
+      <c r="C710" t="s">
+        <v>2376</v>
+      </c>
       <c r="D710" t="s">
         <v>46</v>
       </c>
@@ -28003,6 +28687,9 @@
       <c r="B714" t="s">
         <v>2097</v>
       </c>
+      <c r="C714" t="s">
+        <v>2376</v>
+      </c>
       <c r="D714" t="s">
         <v>55</v>
       </c>
@@ -28087,6 +28774,9 @@
       <c r="B717" t="s">
         <v>2102</v>
       </c>
+      <c r="C717" t="s">
+        <v>2376</v>
+      </c>
       <c r="D717" t="s">
         <v>79</v>
       </c>
@@ -28142,6 +28832,9 @@
       <c r="B719" t="s">
         <v>2109</v>
       </c>
+      <c r="C719" t="s">
+        <v>2376</v>
+      </c>
       <c r="D719" t="s">
         <v>121</v>
       </c>
@@ -28168,6 +28861,9 @@
       <c r="B720" t="s">
         <v>2110</v>
       </c>
+      <c r="C720" t="s">
+        <v>2376</v>
+      </c>
       <c r="D720" t="s">
         <v>121</v>
       </c>
@@ -28310,6 +29006,9 @@
       <c r="B725" t="s">
         <v>2119</v>
       </c>
+      <c r="C725" t="s">
+        <v>2376</v>
+      </c>
       <c r="D725" t="s">
         <v>66</v>
       </c>
@@ -28452,6 +29151,9 @@
       <c r="B730" t="s">
         <v>2134</v>
       </c>
+      <c r="C730" t="s">
+        <v>2376</v>
+      </c>
       <c r="D730" t="s">
         <v>53</v>
       </c>
@@ -28594,6 +29296,9 @@
       <c r="B735" t="s">
         <v>2145</v>
       </c>
+      <c r="C735" t="s">
+        <v>2376</v>
+      </c>
       <c r="D735" t="s">
         <v>124</v>
       </c>
@@ -28794,6 +29499,9 @@
       <c r="B742" t="s">
         <v>2159</v>
       </c>
+      <c r="C742" t="s">
+        <v>2376</v>
+      </c>
       <c r="D742" t="s">
         <v>28</v>
       </c>
@@ -28936,6 +29644,9 @@
       <c r="B747" t="s">
         <v>2174</v>
       </c>
+      <c r="C747" t="s">
+        <v>2376</v>
+      </c>
       <c r="D747" t="s">
         <v>28</v>
       </c>
@@ -29049,6 +29760,9 @@
       <c r="B751" t="s">
         <v>2184</v>
       </c>
+      <c r="C751" t="s">
+        <v>2376</v>
+      </c>
       <c r="D751" t="s">
         <v>116</v>
       </c>
@@ -29162,6 +29876,9 @@
       <c r="B755" t="s">
         <v>2193</v>
       </c>
+      <c r="C755" t="s">
+        <v>2376</v>
+      </c>
       <c r="D755" t="s">
         <v>69</v>
       </c>
@@ -29246,6 +29963,9 @@
       <c r="B758" t="s">
         <v>2199</v>
       </c>
+      <c r="C758" t="s">
+        <v>2376</v>
+      </c>
       <c r="D758" t="s">
         <v>32</v>
       </c>
@@ -29330,6 +30050,9 @@
       <c r="B761" t="s">
         <v>2208</v>
       </c>
+      <c r="C761" t="s">
+        <v>2376</v>
+      </c>
       <c r="D761" t="s">
         <v>30</v>
       </c>
@@ -29704,6 +30427,9 @@
       <c r="B774" t="s">
         <v>2235</v>
       </c>
+      <c r="C774" t="s">
+        <v>2376</v>
+      </c>
       <c r="D774" t="s">
         <v>7</v>
       </c>
@@ -29788,6 +30514,9 @@
       <c r="B777" t="s">
         <v>2243</v>
       </c>
+      <c r="C777" t="s">
+        <v>2376</v>
+      </c>
       <c r="D777" t="s">
         <v>40</v>
       </c>
@@ -30133,6 +30862,9 @@
       <c r="B789" t="s">
         <v>2274</v>
       </c>
+      <c r="C789" t="s">
+        <v>2376</v>
+      </c>
       <c r="D789" t="s">
         <v>102</v>
       </c>
@@ -30246,6 +30978,9 @@
       <c r="B793" t="s">
         <v>2280</v>
       </c>
+      <c r="C793" t="s">
+        <v>2376</v>
+      </c>
       <c r="D793" t="s">
         <v>102</v>
       </c>
@@ -30301,6 +31036,9 @@
       <c r="B795" t="s">
         <v>2285</v>
       </c>
+      <c r="C795" t="s">
+        <v>2376</v>
+      </c>
       <c r="D795" t="s">
         <v>77</v>
       </c>
@@ -30530,6 +31268,9 @@
       <c r="B803" t="s">
         <v>2303</v>
       </c>
+      <c r="C803" t="s">
+        <v>2376</v>
+      </c>
       <c r="D803" t="s">
         <v>39</v>
       </c>
@@ -30585,6 +31326,9 @@
       <c r="B805" t="s">
         <v>2306</v>
       </c>
+      <c r="C805" t="s">
+        <v>2376</v>
+      </c>
       <c r="D805" t="s">
         <v>39</v>
       </c>
@@ -30669,6 +31413,9 @@
       <c r="B808" t="s">
         <v>2312</v>
       </c>
+      <c r="C808" t="s">
+        <v>2376</v>
+      </c>
       <c r="D808" t="s">
         <v>91</v>
       </c>
@@ -30811,6 +31558,9 @@
       <c r="B813" t="s">
         <v>2323</v>
       </c>
+      <c r="C813" t="s">
+        <v>2376</v>
+      </c>
       <c r="D813" t="s">
         <v>171</v>
       </c>
@@ -30953,6 +31703,9 @@
       <c r="B818" t="s">
         <v>2337</v>
       </c>
+      <c r="C818" t="s">
+        <v>2376</v>
+      </c>
       <c r="D818" t="s">
         <v>135</v>
       </c>
@@ -31182,6 +31935,9 @@
       <c r="B826" t="s">
         <v>2354</v>
       </c>
+      <c r="C826" t="s">
+        <v>2376</v>
+      </c>
       <c r="D826" t="s">
         <v>57</v>
       </c>
@@ -31410,6 +32166,9 @@
       </c>
       <c r="B834" t="s">
         <v>2337</v>
+      </c>
+      <c r="C834" t="s">
+        <v>2376</v>
       </c>
       <c r="D834" t="s">
         <v>135</v>
